--- a/src/zxxt_02_excel.xlsx.w3mi.data.xlsx
+++ b/src/zxxt_02_excel.xlsx.w3mi.data.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,17 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Basic table example</t>
   </si>
@@ -53,11 +53,14 @@
   <si>
     <t>{R-T-SUM2}</t>
   </si>
+  <si>
+    <t>Total</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -399,7 +402,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -547,6 +550,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -592,7 +606,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -607,7 +621,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -655,7 +679,163 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -680,16 +860,218 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
+        <left style="thin">
           <color auto="1"/>
         </left>
-        <right style="medium">
+        <right style="thin">
           <color auto="1"/>
         </right>
         <top/>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -742,190 +1124,16 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
           <color auto="1"/>
         </left>
-        <right style="thin">
+        <right style="medium">
           <color auto="1"/>
         </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
+        <top/>
         <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
@@ -942,14 +1150,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:E4" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" tableBorderDxfId="7">
-  <autoFilter ref="A3:E4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A3:E5" totalsRowCount="1" headerRowDxfId="12" dataDxfId="11" tableBorderDxfId="10">
+  <autoFilter ref="A3:E4" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Caption" dataDxfId="6"/>
-    <tableColumn id="2" name="Group" dataDxfId="5"/>
-    <tableColumn id="3" name="Date" dataDxfId="4"/>
-    <tableColumn id="4" name="SUM1" dataDxfId="3"/>
-    <tableColumn id="5" name="SUM2" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Caption" totalsRowLabel="Total" dataDxfId="9" totalsRowDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Group" dataDxfId="8" totalsRowDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Date" dataDxfId="7" totalsRowDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="SUM1" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="SUM2" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1251,16 +1459,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="16.7109375" customWidth="1"/>
+    <col min="1" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="5" width="16.7109375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1281,10 +1490,10 @@
       <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1298,23 +1507,38 @@
       <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="9" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="10">
+        <f>SUBTOTAL(109,Table2[SUM1])</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="10">
+        <f>SUBTOTAL(109,Table2[SUM2])</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C{R-HEADER}</oddHeader>
     <oddFooter>&amp;C{R-FOOTER}
 Date &amp; time: {R-DATETIME;type=datetime}</oddFooter>
   </headerFooter>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>